--- a/Stocks/HINDUNILVR.xlsx
+++ b/Stocks/HINDUNILVR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>930.41666666666663</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1163.9101281239962</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1148.7032210031182</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>51.50368979208946</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>0.59999999999990905</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>15.299999999999955</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>3.9215686274503975E-2</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1135.5786374378265</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>19.593916681652217</v>
       </c>
       <c r="Y67">
         <v>20.632954890213469</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1181.3499999999999</v>
+      </c>
+      <c r="D83">
+        <v>1202.8499999999999</v>
+      </c>
+      <c r="E83">
+        <v>1178.75</v>
+      </c>
+      <c r="F83">
+        <v>1200</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1193.8666666666666</v>
+      </c>
+      <c r="H83">
+        <v>1190.3820456460794</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>1196.5051444470889</v>
+      </c>
+      <c r="K83">
+        <v>1174.8567671517205</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>61.317842179254576</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>21.25</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>24.099999999999909</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.88174273858921492</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V83">
+        <v>1185.6102677241527</v>
+      </c>
+      <c r="W83">
+        <v>1170.8666874661826</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>14.743580257970052</v>
+      </c>
+      <c r="Y83">
+        <v>15.724930805371407</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1195.1500000000001</v>
+      </c>
+      <c r="D84">
+        <v>1198.55</v>
+      </c>
+      <c r="E84">
+        <v>1183</v>
+      </c>
+      <c r="F84">
+        <v>1190</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1190.5166666666667</v>
+      </c>
+      <c r="H84">
+        <v>1190.4493561563731</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>1196.9595567921804</v>
+      </c>
+      <c r="K84">
+        <v>1176.6663744513382</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>51.361672484110464</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>15.549999999999955</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.45016077170418139</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>1186.285611151206</v>
+      </c>
+      <c r="W84">
+        <v>1172.2839698760949</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>14.001641275111069</v>
+      </c>
+      <c r="Y84">
+        <v>15.38027289931934</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1197.5</v>
+      </c>
+      <c r="D85">
+        <v>1209.5999999999999</v>
+      </c>
+      <c r="E85">
+        <v>1187.25</v>
+      </c>
+      <c r="F85">
+        <v>1201.9000000000001</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1199.5833333333333</v>
+      </c>
+      <c r="H85">
+        <v>1195.0163447448531</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>1199.7685441716958</v>
+      </c>
+      <c r="K85">
+        <v>1179.0182912399298</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>60.823728277393855</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>14.650000000000091</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>22.349999999999909</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.65548098434005153</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>1188.6878248202513</v>
+      </c>
+      <c r="W85">
+        <v>1174.4777498852732</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>14.210074934978138</v>
+      </c>
+      <c r="Y85">
+        <v>15.1462333064511</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1201.8499999999999</v>
+      </c>
+      <c r="D86">
+        <v>1222.8</v>
+      </c>
+      <c r="E86">
+        <v>1194.3</v>
+      </c>
+      <c r="F86">
+        <v>1215.0999999999999</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1210.7333333333333</v>
+      </c>
+      <c r="H86">
+        <v>1202.8748390390933</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>1204.8866454668746</v>
+      </c>
+      <c r="K86">
+        <v>1182.4142265199455</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>69.146202812527306</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>20.799999999999955</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>28.5</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.72982456140350715</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>1192.7512363863664</v>
+      </c>
+      <c r="W86">
+        <v>1177.486805449327</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>15.264430937039378</v>
+      </c>
+      <c r="Y86">
+        <v>15.169872832568755</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1216.25</v>
+      </c>
+      <c r="D87">
+        <v>1222</v>
+      </c>
+      <c r="E87">
+        <v>1207.1500000000001</v>
+      </c>
+      <c r="F87">
+        <v>1215.75</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1214.9666666666667</v>
+      </c>
+      <c r="H87">
+        <v>1208.92075285288</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>1208.6896131409026</v>
+      </c>
+      <c r="K87">
+        <v>1187.9110650710688</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>69.544443247267452</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>8.5999999999999091</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>14.849999999999909</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.5791245791245766</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>1196.2895077115409</v>
+      </c>
+      <c r="W87">
+        <v>1180.3211161567842</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>15.968391554756636</v>
+      </c>
+      <c r="Y87">
+        <v>15.329576577006332</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1214.8499999999999</v>
+      </c>
+      <c r="D88">
+        <v>1214.8499999999999</v>
+      </c>
+      <c r="E88">
+        <v>1193.75</v>
+      </c>
+      <c r="F88">
+        <v>1194.0999999999999</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1200.8999999999999</v>
+      </c>
+      <c r="H88">
+        <v>1204.9103764264401</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>1210.0585879984797</v>
+      </c>
+      <c r="K88">
+        <v>1189.208606166387</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>45.235332327987166</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>0.34999999999990905</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>21.099999999999909</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>1.6587677725114245E-2</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>1195.9526603713039</v>
+      </c>
+      <c r="W88">
+        <v>1181.3417742192446</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>14.610886152059265</v>
+      </c>
+      <c r="Y88">
+        <v>15.185838492016918</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1196.4000000000001</v>
+      </c>
+      <c r="D89">
+        <v>1211.5</v>
+      </c>
+      <c r="E89">
+        <v>1192.3</v>
+      </c>
+      <c r="F89">
+        <v>1204</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1202.6000000000001</v>
+      </c>
+      <c r="H89">
+        <v>1203.7551882132202</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>1210.3789017765953</v>
+      </c>
+      <c r="K89">
+        <v>1189.8955825738565</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>54.355142578654956</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>11.700000000000045</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>19.200000000000045</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.60937500000000089</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>1197.1907126218725</v>
+      </c>
+      <c r="W89">
+        <v>1183.0201613141153</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>14.17055130775725</v>
+      </c>
+      <c r="Y89">
+        <v>14.982781055164985</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1202</v>
+      </c>
+      <c r="D90">
+        <v>1212</v>
+      </c>
+      <c r="E90">
+        <v>1200.3</v>
+      </c>
+      <c r="F90">
+        <v>1202.5999999999999</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1204.9666666666667</v>
+      </c>
+      <c r="H90">
+        <v>1204.3609274399435</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>1210.7391458262407</v>
+      </c>
+      <c r="K90">
+        <v>1192.2076753352217</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>52.800862722519284</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>2.2999999999999545</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>11.700000000000045</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.19658119658119194</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1198.0229106800459</v>
+      </c>
+      <c r="W90">
+        <v>1184.4705197352919</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>13.552390944754052</v>
+      </c>
+      <c r="Y90">
+        <v>14.696703033082798</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1209</v>
+      </c>
+      <c r="D91">
+        <v>1221.75</v>
+      </c>
+      <c r="E91">
+        <v>1203.7</v>
+      </c>
+      <c r="F91">
+        <v>1209</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1211.4833333333333</v>
+      </c>
+      <c r="H91">
+        <v>1207.9221303866384</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>1213.1860023092984</v>
+      </c>
+      <c r="K91">
+        <v>1194.7615252607279</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>59.429980656137772</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>5.2999999999999545</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>18.049999999999955</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.29362880886426412</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>1199.7116936523466</v>
+      </c>
+      <c r="W91">
+        <v>1186.2875182734183</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>13.424175378928339</v>
+      </c>
+      <c r="Y91">
+        <v>14.442197502251906</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1210.25</v>
+      </c>
+      <c r="D92">
+        <v>1218.3499999999999</v>
+      </c>
+      <c r="E92">
+        <v>1202.0999999999999</v>
+      </c>
+      <c r="F92">
+        <v>1204.9000000000001</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1208.45</v>
+      </c>
+      <c r="H92">
+        <v>1208.1860651933193</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>1214.3335573516765</v>
+      </c>
+      <c r="K92">
+        <v>1196.3922974250106</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>53.421661776610009</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>2.8000000000001819</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>16.25</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.17230769230770351</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>1200.5098946289088</v>
+      </c>
+      <c r="W92">
+        <v>1187.6662206235355</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>12.843674005373259</v>
+      </c>
+      <c r="Y92">
+        <v>14.122492802876177</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1206</v>
+      </c>
+      <c r="D93">
+        <v>1232</v>
+      </c>
+      <c r="E93">
+        <v>1206</v>
+      </c>
+      <c r="F93">
+        <v>1217</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1218.3333333333333</v>
+      </c>
+      <c r="H93">
+        <v>1213.2596992633262</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>1218.2594334957485</v>
+      </c>
+      <c r="K93">
+        <v>1198.5273424416748</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>66.07444086917593</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>26</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.42307692307692307</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>1203.0468339167689</v>
+      </c>
+      <c r="W93">
+        <v>1189.8390931699403</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>13.207740746828676</v>
+      </c>
+      <c r="Y93">
+        <v>13.939542391666677</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1224</v>
+      </c>
+      <c r="D94">
+        <v>1255</v>
+      </c>
+      <c r="E94">
+        <v>1223</v>
+      </c>
+      <c r="F94">
+        <v>1249.1500000000001</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1242.3833333333334</v>
+      </c>
+      <c r="H94">
+        <v>1227.8215162983297</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>1226.4240038300265</v>
+      </c>
+      <c r="K94">
+        <v>1203.9657107879693</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>82.165185688683238</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>26.150000000000091</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.81718750000000284</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>1210.1396286988045</v>
+      </c>
+      <c r="W94">
+        <v>1194.2324936758707</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>15.907135022933744</v>
+      </c>
+      <c r="Y94">
+        <v>14.33306091792009</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD94">
+        <f t="shared" si="35"/>
+        <v>1226.6500000000001</v>
+      </c>
+      <c r="AE94">
+        <f t="shared" si="36"/>
+        <v>1235.2</v>
+      </c>
+      <c r="AF94">
+        <f t="shared" si="37"/>
+        <v>1239</v>
+      </c>
+      <c r="AG94">
+        <f t="shared" si="38"/>
+        <v>1242.8000000000002</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1250</v>
+      </c>
+      <c r="D95">
+        <v>1259</v>
+      </c>
+      <c r="E95">
+        <v>1245.2</v>
+      </c>
+      <c r="F95">
+        <v>1250.5</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1251.5666666666666</v>
+      </c>
+      <c r="H95">
+        <v>1239.6940914824982</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>1233.6631140900206</v>
+      </c>
+      <c r="K95">
+        <v>1213.1288861684206</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>82.598398368844599</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>5.2999999999999545</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>13.799999999999955</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.38405797101449074</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1216.3489165912961</v>
+      </c>
+      <c r="W95">
+        <v>1198.4004571072878</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>17.948459484008254</v>
+      </c>
+      <c r="Y95">
+        <v>15.056140631137723</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1262.0999999999999</v>
+      </c>
+      <c r="D96">
+        <v>1262.0999999999999</v>
+      </c>
+      <c r="E96">
+        <v>1230.0999999999999</v>
+      </c>
+      <c r="F96">
+        <v>1241.0999999999999</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1244.4333333333332</v>
+      </c>
+      <c r="H96">
+        <v>1242.0637124079158</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>1239.9824220700159</v>
+      </c>
+      <c r="K96">
+        <v>1216.9002447976604</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>68.183380211174281</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.34375</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>1220.1567755772505</v>
+      </c>
+      <c r="W96">
+        <v>1201.5633862104517</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>18.593389366798874</v>
+      </c>
+      <c r="Y96">
+        <v>15.763590378269953</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1242.0999999999999</v>
+      </c>
+      <c r="D97">
+        <v>1256.8</v>
+      </c>
+      <c r="E97">
+        <v>1235.5999999999999</v>
+      </c>
+      <c r="F97">
+        <v>1253.95</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1248.7833333333331</v>
+      </c>
+      <c r="H97">
+        <v>1245.4235228706243</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>1243.7196616100123</v>
+      </c>
+      <c r="K97">
+        <v>1221.0557459537358</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>75.492017588945203</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>18.350000000000136</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>21.200000000000045</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.86556603773585361</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V97">
+        <v>1225.3557331807503</v>
+      </c>
+      <c r="W97">
+        <v>1205.4438761207887</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>19.911857059961676</v>
+      </c>
+      <c r="Y97">
+        <v>16.593243714608299</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD97">
+        <f t="shared" si="35"/>
+        <v>1238</v>
+      </c>
+      <c r="AE97">
+        <f t="shared" si="36"/>
+        <v>1243.7</v>
+      </c>
+      <c r="AF97">
+        <f t="shared" si="37"/>
+        <v>1246.2</v>
+      </c>
+      <c r="AG97">
+        <f t="shared" si="38"/>
+        <v>1248.7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1250</v>
+      </c>
+      <c r="D98">
+        <v>1285.95</v>
+      </c>
+      <c r="E98">
+        <v>1246</v>
+      </c>
+      <c r="F98">
+        <v>1282</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1271.3166666666666</v>
+      </c>
+      <c r="H98">
+        <v>1258.3700947686455</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>1253.1041812522317</v>
+      </c>
+      <c r="K98">
+        <v>1226.5989135195723</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>84.934760526917984</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>36</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>39.950000000000045</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.90112640801001154</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V98">
+        <v>1234.0702357683272</v>
+      </c>
+      <c r="W98">
+        <v>1211.1147001118413</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>22.955535656485836</v>
+      </c>
+      <c r="Y98">
+        <v>17.865702102983807</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD98">
+        <f t="shared" si="35"/>
+        <v>1250.5500000000002</v>
+      </c>
+      <c r="AE98">
+        <f t="shared" si="36"/>
+        <v>1261.25</v>
+      </c>
+      <c r="AF98">
+        <f t="shared" si="37"/>
+        <v>1265.95</v>
+      </c>
+      <c r="AG98">
+        <f t="shared" si="38"/>
+        <v>1270.7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1287.5999999999999</v>
+      </c>
+      <c r="D99">
+        <v>1287.5999999999999</v>
+      </c>
+      <c r="E99">
+        <v>1273.55</v>
+      </c>
+      <c r="F99">
+        <v>1285</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1282.05</v>
+      </c>
+      <c r="H99">
+        <v>1270.2100473843227</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>1260.7699187517358</v>
+      </c>
+      <c r="K99">
+        <v>1237.0324882930006</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>85.672752716944103</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>11.450000000000045</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>14.049999999999955</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.81494661921708778</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V99">
+        <v>1241.9055841116615</v>
+      </c>
+      <c r="W99">
+        <v>1216.587685288742</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>25.31789882291946</v>
+      </c>
+      <c r="Y99">
+        <v>19.356141446970938</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD99">
+        <f t="shared" si="35"/>
+        <v>1275.1500000000001</v>
+      </c>
+      <c r="AE99">
+        <f t="shared" si="36"/>
+        <v>1278.9000000000001</v>
+      </c>
+      <c r="AF99">
+        <f t="shared" si="37"/>
+        <v>1280.5500000000002</v>
+      </c>
+      <c r="AG99">
+        <f t="shared" si="38"/>
+        <v>1282.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1280</v>
+      </c>
+      <c r="D100">
+        <v>1281.3499999999999</v>
+      </c>
+      <c r="E100">
+        <v>1255.0999999999999</v>
+      </c>
+      <c r="F100">
+        <v>1257.55</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1264.6666666666667</v>
+      </c>
+      <c r="H100">
+        <v>1267.4383570254947</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>1265.3432701402389</v>
+      </c>
+      <c r="K100">
+        <v>1241.0474908945559</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>54.908498053349732</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>2.4500000000000455</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>26.25</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>9.3333333333335072E-2</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>1244.312417325252</v>
+      </c>
+      <c r="W100">
+        <v>1219.6219308229092</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>24.690486502342765</v>
+      </c>
+      <c r="Y100">
+        <v>20.423010458045304</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1261</v>
+      </c>
+      <c r="D101">
+        <v>1261.9000000000001</v>
+      </c>
+      <c r="E101">
+        <v>1248</v>
+      </c>
+      <c r="F101">
+        <v>1253.4000000000001</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1254.4333333333334</v>
+      </c>
+      <c r="H101">
+        <v>1260.9358451794142</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>1264.5780989979637</v>
+      </c>
+      <c r="K101">
+        <v>1242.592492917988</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>51.419149705113199</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>5.4000000000000909</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>13.900000000000091</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.38848920863309755</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>1245.710506967521</v>
+      </c>
+      <c r="W101">
+        <v>1222.1240100212124</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>23.586496946308671</v>
+      </c>
+      <c r="Y101">
+        <v>21.055707755697977</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1252.2</v>
+      </c>
+      <c r="D102">
+        <v>1252.25</v>
+      </c>
+      <c r="E102">
+        <v>1234.0999999999999</v>
+      </c>
+      <c r="F102">
+        <v>1240.5</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1242.2833333333333</v>
+      </c>
+      <c r="H102">
+        <v>1251.6095892563737</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1261.8385214428606</v>
+      </c>
+      <c r="K102">
+        <v>1240.7052722695462</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>41.236925259485538</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>6.4000000000000909</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>18.150000000000091</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.35261707988981039</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>1244.9088905109793</v>
+      </c>
+      <c r="W102">
+        <v>1223.4851944640855</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>21.423696046893838</v>
+      </c>
+      <c r="Y102">
+        <v>21.12930541393715</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1239.9000000000001</v>
+      </c>
+      <c r="D103">
+        <v>1259</v>
+      </c>
+      <c r="E103">
+        <v>1237.5</v>
+      </c>
+      <c r="F103">
+        <v>1247.9000000000001</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>1248.1333333333334</v>
+      </c>
+      <c r="H103">
+        <v>1249.8714612948536</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1261.2077389000026</v>
+      </c>
+      <c r="K103">
+        <v>1239.9929895429805</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>48.543444155735585</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>10.400000000000091</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>21.5</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.48372093023256235</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1245.3690612015978</v>
+      </c>
+      <c r="W103">
+        <v>1225.293698577857</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>20.07536262374083</v>
+      </c>
+      <c r="Y103">
+        <v>20.918516855897884</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>1261.0999999999999</v>
+      </c>
+      <c r="D104">
+        <v>1261.0999999999999</v>
+      </c>
+      <c r="E104">
+        <v>1201.05</v>
+      </c>
+      <c r="F104">
+        <v>1217</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1226.3833333333332</v>
+      </c>
+      <c r="H104">
+        <v>1238.1273973140933</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>1261.1837969222242</v>
+      </c>
+      <c r="K104">
+        <v>1231.3389918667626</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>29.438161797312635</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>15.950000000000045</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>60.049999999999955</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.26561199000832736</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1241.0045902475058</v>
+      </c>
+      <c r="W104">
+        <v>1224.6793505350527</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>16.32523971245314</v>
+      </c>
+      <c r="Y104">
+        <v>19.999861427208934</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>1217</v>
+      </c>
+      <c r="D105">
+        <v>1217.5</v>
+      </c>
+      <c r="E105">
+        <v>1188</v>
+      </c>
+      <c r="F105">
+        <v>1210.0999999999999</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>1205.2</v>
+      </c>
+      <c r="H105">
+        <v>1221.6636986570466</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>1251.4762864950633</v>
+      </c>
+      <c r="K105">
+        <v>1221.7081047852598</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>26.524309187028468</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>22.099999999999909</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>29.5</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.74915254237287832</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>1236.2500379017356</v>
+      </c>
+      <c r="W105">
+        <v>1223.5993986435674</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>12.650639258168212</v>
+      </c>
+      <c r="Y105">
+        <v>18.530016993400789</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>1205.8</v>
+      </c>
+      <c r="D106">
+        <v>1212.95</v>
+      </c>
+      <c r="E106">
+        <v>1192.1500000000001</v>
+      </c>
+      <c r="F106">
+        <v>1203.0999999999999</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>1202.7333333333333</v>
+      </c>
+      <c r="H106">
+        <v>1212.1985159951901</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>1242.9148894961604</v>
+      </c>
+      <c r="K106">
+        <v>1215.139637055202</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>23.566253172328857</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>10.949999999999818</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>20.799999999999955</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.52644230769230005</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>1231.1500320706994</v>
+      </c>
+      <c r="W106">
+        <v>1222.0809246699698</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>9.0691074007295356</v>
+      </c>
+      <c r="Y106">
+        <v>16.637835074866537</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>1209.8</v>
+      </c>
+      <c r="D107">
+        <v>1209.8</v>
+      </c>
+      <c r="E107">
+        <v>1169</v>
+      </c>
+      <c r="F107">
+        <v>1169.6500000000001</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>1182.8166666666668</v>
+      </c>
+      <c r="H107">
+        <v>1197.5075913309283</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>1235.5560251636803</v>
+      </c>
+      <c r="K107">
+        <v>1204.8863843762683</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>14.144157747495095</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>0.65000000000009095</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>40.799999999999955</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>1.5931372549021855E-2</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V107">
+        <v>1221.6884886752071</v>
+      </c>
+      <c r="W107">
+        <v>1218.1971524721944</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>3.4913362030126791</v>
+      </c>
+      <c r="Y107">
+        <v>14.008535300495765</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD107">
+        <f t="shared" si="35"/>
+        <v>1205.1500000000001</v>
+      </c>
+      <c r="AE107">
+        <f t="shared" si="36"/>
+        <v>1194.2</v>
+      </c>
+      <c r="AF107">
+        <f t="shared" si="37"/>
+        <v>1189.4000000000001</v>
+      </c>
+      <c r="AG107">
+        <f t="shared" si="38"/>
+        <v>1184.6000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
